--- a/posts/celebrate-100-gym-days/chris-gym_game.xlsx
+++ b/posts/celebrate-100-gym-days/chris-gym_game.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/546aaba906e00efe/RProjectsHub/codecraft.blog/posts/celebrate-100-gym-days/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrism\OneDrive\RProjectsHub\codecraft.blog\posts\celebrate-100-gym-days\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D8E368-158C-490C-8EF9-7822CE11E9C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{00D8E368-158C-490C-8EF9-7822CE11E9C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{046C61E2-5DB5-4DD6-8CB0-BF5545E54161}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11280" xr2:uid="{D341B39E-9C13-45E7-9111-0141A1582B11}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="255">
   <si>
     <t>04 Oct 23 5:31am</t>
   </si>
@@ -163,6 +163,633 @@
   </si>
   <si>
     <t>92 minutes</t>
+  </si>
+  <si>
+    <t>29 Jul 23 7:29am</t>
+  </si>
+  <si>
+    <t>29 Jul 23 9:12am</t>
+  </si>
+  <si>
+    <t>103 minutes</t>
+  </si>
+  <si>
+    <t>31 Jul 23 6:33am</t>
+  </si>
+  <si>
+    <t>31 Jul 23 8:04am</t>
+  </si>
+  <si>
+    <t>01 Aug 23 6:35am</t>
+  </si>
+  <si>
+    <t>01 Aug 23 8:02am</t>
+  </si>
+  <si>
+    <t>02 Aug 23 6:37am</t>
+  </si>
+  <si>
+    <t>02 Aug 23 8:03am</t>
+  </si>
+  <si>
+    <t>86 minutes</t>
+  </si>
+  <si>
+    <t>03 Aug 23 6:36am</t>
+  </si>
+  <si>
+    <t>03 Aug 23 8:01am</t>
+  </si>
+  <si>
+    <t>05 Aug 23 8:06am</t>
+  </si>
+  <si>
+    <t>05 Aug 23 9:48am</t>
+  </si>
+  <si>
+    <t>102 minutes</t>
+  </si>
+  <si>
+    <t>07 Aug 23 6:36am</t>
+  </si>
+  <si>
+    <t>07 Aug 23 8:00am</t>
+  </si>
+  <si>
+    <t>84 minutes</t>
+  </si>
+  <si>
+    <t>08 Aug 23 6:37am</t>
+  </si>
+  <si>
+    <t>08 Aug 23 8:01am</t>
+  </si>
+  <si>
+    <t>09 Aug 23 6:32am</t>
+  </si>
+  <si>
+    <t>09 Aug 23 8:02am</t>
+  </si>
+  <si>
+    <t>90 minutes</t>
+  </si>
+  <si>
+    <t>10 Aug 23 6:33am</t>
+  </si>
+  <si>
+    <t>10 Aug 23 8:00am</t>
+  </si>
+  <si>
+    <t>11 Aug 23 6:39am</t>
+  </si>
+  <si>
+    <t>11 Aug 23 8:01am</t>
+  </si>
+  <si>
+    <t>82 minutes</t>
+  </si>
+  <si>
+    <t>12 Aug 23 7:02am</t>
+  </si>
+  <si>
+    <t>12 Aug 23 8:33am</t>
+  </si>
+  <si>
+    <t>13 Aug 23 7:08am</t>
+  </si>
+  <si>
+    <t>13 Aug 23 8:04am</t>
+  </si>
+  <si>
+    <t>56 minutes</t>
+  </si>
+  <si>
+    <t>14 Aug 23 6:34am</t>
+  </si>
+  <si>
+    <t>14 Aug 23 8:01am</t>
+  </si>
+  <si>
+    <t>15 Aug 23 6:34am</t>
+  </si>
+  <si>
+    <t>15 Aug 23 8:04am</t>
+  </si>
+  <si>
+    <t>16 Aug 23 6:32am</t>
+  </si>
+  <si>
+    <t>16 Aug 23 8:01am</t>
+  </si>
+  <si>
+    <t>17 Aug 23 6:36am</t>
+  </si>
+  <si>
+    <t>17 Aug 23 8:02am</t>
+  </si>
+  <si>
+    <t>29 Jun 23 6:53am</t>
+  </si>
+  <si>
+    <t>29 Jun 23 8:01am</t>
+  </si>
+  <si>
+    <t>68 minutes</t>
+  </si>
+  <si>
+    <t>01 Jul 23 7:27am</t>
+  </si>
+  <si>
+    <t>01 Jul 23 9:00am</t>
+  </si>
+  <si>
+    <t>93 minutes</t>
+  </si>
+  <si>
+    <t>03 Jul 23 6:50am</t>
+  </si>
+  <si>
+    <t>03 Jul 23 8:03am</t>
+  </si>
+  <si>
+    <t>73 minutes</t>
+  </si>
+  <si>
+    <t>04 Jul 23 6:51am</t>
+  </si>
+  <si>
+    <t>04 Jul 23 7:59am</t>
+  </si>
+  <si>
+    <t>05 Jul 23 6:52am</t>
+  </si>
+  <si>
+    <t>05 Jul 23 8:04am</t>
+  </si>
+  <si>
+    <t>72 minutes</t>
+  </si>
+  <si>
+    <t>06 Jul 23 6:56am</t>
+  </si>
+  <si>
+    <t>06 Jul 23 8:03am</t>
+  </si>
+  <si>
+    <t>67 minutes</t>
+  </si>
+  <si>
+    <t>08 Jul 23 7:59am</t>
+  </si>
+  <si>
+    <t>08 Jul 23 9:50am</t>
+  </si>
+  <si>
+    <t>111 minutes</t>
+  </si>
+  <si>
+    <t>10 Jul 23 6:48am</t>
+  </si>
+  <si>
+    <t>10 Jul 23 8:06am</t>
+  </si>
+  <si>
+    <t>78 minutes</t>
+  </si>
+  <si>
+    <t>11 Jul 23 6:54am</t>
+  </si>
+  <si>
+    <t>11 Jul 23 8:05am</t>
+  </si>
+  <si>
+    <t>71 minutes</t>
+  </si>
+  <si>
+    <t>12 Jul 23 6:42am</t>
+  </si>
+  <si>
+    <t>12 Jul 23 8:09am</t>
+  </si>
+  <si>
+    <t>13 Jul 23 6:35am</t>
+  </si>
+  <si>
+    <t>13 Jul 23 8:07am</t>
+  </si>
+  <si>
+    <t>15 Jul 23 7:04am</t>
+  </si>
+  <si>
+    <t>15 Jul 23 8:51am</t>
+  </si>
+  <si>
+    <t>107 minutes</t>
+  </si>
+  <si>
+    <t>17 Jul 23 6:36am</t>
+  </si>
+  <si>
+    <t>17 Jul 23 8:04am</t>
+  </si>
+  <si>
+    <t>18 Jul 23 6:30am</t>
+  </si>
+  <si>
+    <t>18 Jul 23 8:02am</t>
+  </si>
+  <si>
+    <t>19 Jul 23 6:28am</t>
+  </si>
+  <si>
+    <t>19 Jul 23 8:04am</t>
+  </si>
+  <si>
+    <t>96 minutes</t>
+  </si>
+  <si>
+    <t>20 Jul 23 6:32am</t>
+  </si>
+  <si>
+    <t>20 Jul 23 8:02am</t>
+  </si>
+  <si>
+    <t>21 Jul 23 6:39am</t>
+  </si>
+  <si>
+    <t>21 Jul 23 7:51am</t>
+  </si>
+  <si>
+    <t>24 Jul 23 6:33am</t>
+  </si>
+  <si>
+    <t>24 Jul 23 8:15am</t>
+  </si>
+  <si>
+    <t>25 Jul 23 6:31am</t>
+  </si>
+  <si>
+    <t>25 Jul 23 7:59am</t>
+  </si>
+  <si>
+    <t>26 Jul 23 6:32am</t>
+  </si>
+  <si>
+    <t>26 Jul 23 8:17am</t>
+  </si>
+  <si>
+    <t>105 minutes</t>
+  </si>
+  <si>
+    <t>27 Jul 23 6:43am</t>
+  </si>
+  <si>
+    <t>27 Jul 23 8:01am</t>
+  </si>
+  <si>
+    <t>28 Jul 23 7:30am</t>
+  </si>
+  <si>
+    <t>28 Jul 23 8:51am</t>
+  </si>
+  <si>
+    <t>81 minutes</t>
+  </si>
+  <si>
+    <t>06 Jun 23 6:30am</t>
+  </si>
+  <si>
+    <t>06 Jun 23 7:35am</t>
+  </si>
+  <si>
+    <t>65 minutes</t>
+  </si>
+  <si>
+    <t>07 Jun 23 6:34am</t>
+  </si>
+  <si>
+    <t>07 Jun 23 7:27am</t>
+  </si>
+  <si>
+    <t>53 minutes</t>
+  </si>
+  <si>
+    <t>08 Jun 23 6:40am</t>
+  </si>
+  <si>
+    <t>08 Jun 23 7:39am</t>
+  </si>
+  <si>
+    <t>59 minutes</t>
+  </si>
+  <si>
+    <t>10 Jun 23 8:01am</t>
+  </si>
+  <si>
+    <t>10 Jun 23 9:05am</t>
+  </si>
+  <si>
+    <t>64 minutes</t>
+  </si>
+  <si>
+    <t>13 Jun 23 7:02am</t>
+  </si>
+  <si>
+    <t>13 Jun 23 8:02am</t>
+  </si>
+  <si>
+    <t>60 minutes</t>
+  </si>
+  <si>
+    <t>14 Jun 23 6:38am</t>
+  </si>
+  <si>
+    <t>14 Jun 23 7:48am</t>
+  </si>
+  <si>
+    <t>70 minutes</t>
+  </si>
+  <si>
+    <t>19 Jun 23 6:32am</t>
+  </si>
+  <si>
+    <t>19 Jun 23 7:41am</t>
+  </si>
+  <si>
+    <t>69 minutes</t>
+  </si>
+  <si>
+    <t>21 Jun 23 6:50am</t>
+  </si>
+  <si>
+    <t>21 Jun 23 7:59am</t>
+  </si>
+  <si>
+    <t>22 Jun 23 6:52am</t>
+  </si>
+  <si>
+    <t>22 Jun 23 8:02am</t>
+  </si>
+  <si>
+    <t>24 Jun 23 7:51am</t>
+  </si>
+  <si>
+    <t>24 Jun 23 9:27am</t>
+  </si>
+  <si>
+    <t>26 Jun 23 6:50am</t>
+  </si>
+  <si>
+    <t>26 Jun 23 8:10am</t>
+  </si>
+  <si>
+    <t>80 minutes</t>
+  </si>
+  <si>
+    <t>27 Jun 23 6:53am</t>
+  </si>
+  <si>
+    <t>27 Jun 23 7:59am</t>
+  </si>
+  <si>
+    <t>66 minutes</t>
+  </si>
+  <si>
+    <t>28 Jun 23 6:51am</t>
+  </si>
+  <si>
+    <t>28 Jun 23 7:58am</t>
+  </si>
+  <si>
+    <t>21 May 23 10:52am</t>
+  </si>
+  <si>
+    <t>21 May 23 12:06pm</t>
+  </si>
+  <si>
+    <t>22 May 23 8:23pm</t>
+  </si>
+  <si>
+    <t>22 May 23 9:38pm</t>
+  </si>
+  <si>
+    <t>75 minutes</t>
+  </si>
+  <si>
+    <t>03 Mar 23 6:01am</t>
+  </si>
+  <si>
+    <t>03 Mar 23 8:03am</t>
+  </si>
+  <si>
+    <t>122 minutes</t>
+  </si>
+  <si>
+    <t>04 Mar 23 8:49pm</t>
+  </si>
+  <si>
+    <t>04 Mar 23 10:22pm</t>
+  </si>
+  <si>
+    <t>05 Mar 23 9:38am</t>
+  </si>
+  <si>
+    <t>05 Mar 23 10:39am</t>
+  </si>
+  <si>
+    <t>61 minutes</t>
+  </si>
+  <si>
+    <t>07 Mar 23 6:08am</t>
+  </si>
+  <si>
+    <t>07 Mar 23 7:10am</t>
+  </si>
+  <si>
+    <t>62 minutes</t>
+  </si>
+  <si>
+    <t>08 Mar 23 6:02am</t>
+  </si>
+  <si>
+    <t>08 Mar 23 7:16am</t>
+  </si>
+  <si>
+    <t>31 Jan 23 8:27pm</t>
+  </si>
+  <si>
+    <t>31 Jan 23 9:34pm</t>
+  </si>
+  <si>
+    <t>02 Feb 23 7:40pm</t>
+  </si>
+  <si>
+    <t>02 Feb 23 9:02pm</t>
+  </si>
+  <si>
+    <t>05 Feb 23 6:42pm</t>
+  </si>
+  <si>
+    <t>05 Feb 23 7:51pm</t>
+  </si>
+  <si>
+    <t>09 Feb 23 4:26pm</t>
+  </si>
+  <si>
+    <t>09 Feb 23 5:42pm</t>
+  </si>
+  <si>
+    <t>76 minutes</t>
+  </si>
+  <si>
+    <t>11 Feb 23 9:01am</t>
+  </si>
+  <si>
+    <t>11 Feb 23 10:31am</t>
+  </si>
+  <si>
+    <t>13 Feb 23 6:04am</t>
+  </si>
+  <si>
+    <t>13 Feb 23 7:21am</t>
+  </si>
+  <si>
+    <t>77 minutes</t>
+  </si>
+  <si>
+    <t>14 Feb 23 5:52am</t>
+  </si>
+  <si>
+    <t>14 Feb 23 7:25am</t>
+  </si>
+  <si>
+    <t>16 Feb 23 8:23pm</t>
+  </si>
+  <si>
+    <t>16 Feb 23 9:40pm</t>
+  </si>
+  <si>
+    <t>18 Feb 23 8:15am</t>
+  </si>
+  <si>
+    <t>18 Feb 23 9:38am</t>
+  </si>
+  <si>
+    <t>83 minutes</t>
+  </si>
+  <si>
+    <t>19 Feb 23 7:57am</t>
+  </si>
+  <si>
+    <t>19 Feb 23 9:05am</t>
+  </si>
+  <si>
+    <t>20 Feb 23 8:59pm</t>
+  </si>
+  <si>
+    <t>20 Feb 23 10:08pm</t>
+  </si>
+  <si>
+    <t>22 Feb 23 4:28pm</t>
+  </si>
+  <si>
+    <t>22 Feb 23 5:37pm</t>
+  </si>
+  <si>
+    <t>27 Feb 23 8:31pm</t>
+  </si>
+  <si>
+    <t>27 Feb 23 9:58pm</t>
+  </si>
+  <si>
+    <t>28 Feb 23 8:40pm</t>
+  </si>
+  <si>
+    <t>28 Feb 23 9:59pm</t>
+  </si>
+  <si>
+    <t>79 minutes</t>
+  </si>
+  <si>
+    <t>02 Jan 23 10:47am</t>
+  </si>
+  <si>
+    <t>02 Jan 23 11:40am</t>
+  </si>
+  <si>
+    <t>03 Jan 23 4:56pm</t>
+  </si>
+  <si>
+    <t>03 Jan 23 6:12pm</t>
+  </si>
+  <si>
+    <t>04 Jan 23 5:21pm</t>
+  </si>
+  <si>
+    <t>04 Jan 23 6:37pm</t>
+  </si>
+  <si>
+    <t>08 Jan 23 1:49pm</t>
+  </si>
+  <si>
+    <t>08 Jan 23 3:26pm</t>
+  </si>
+  <si>
+    <t>97 minutes</t>
+  </si>
+  <si>
+    <t>09 Jan 23 8:11pm</t>
+  </si>
+  <si>
+    <t>09 Jan 23 9:23pm</t>
+  </si>
+  <si>
+    <t>10 Jan 23 8:16pm</t>
+  </si>
+  <si>
+    <t>10 Jan 23 9:28pm</t>
+  </si>
+  <si>
+    <t>11 Jan 23 7:45pm</t>
+  </si>
+  <si>
+    <t>11 Jan 23 9:04pm</t>
+  </si>
+  <si>
+    <t>13 Jan 23 6:22am</t>
+  </si>
+  <si>
+    <t>13 Jan 23 7:48am</t>
+  </si>
+  <si>
+    <t>16 Jan 23 8:12pm</t>
+  </si>
+  <si>
+    <t>16 Jan 23 9:17pm</t>
+  </si>
+  <si>
+    <t>19 Jan 23 3:56pm</t>
+  </si>
+  <si>
+    <t>19 Jan 23 5:02pm</t>
+  </si>
+  <si>
+    <t>23 Jan 23 9:25pm</t>
+  </si>
+  <si>
+    <t>23 Jan 23 10:38pm</t>
+  </si>
+  <si>
+    <t>25 Jan 23 5:47pm</t>
+  </si>
+  <si>
+    <t>25 Jan 23 7:17pm</t>
+  </si>
+  <si>
+    <t>26 Jan 23 7:14pm</t>
+  </si>
+  <si>
+    <t>26 Jan 23 8:28pm</t>
   </si>
 </sst>
 </file>
@@ -514,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEC7913-E794-43DD-9CD6-2AF912C0948E}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +1392,1210 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>182</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>214</v>
+      </c>
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" t="s">
+        <v>229</v>
+      </c>
+      <c r="C91" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>241</v>
+      </c>
+      <c r="B97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" t="s">
+        <v>227</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>249</v>
+      </c>
+      <c r="B101" t="s">
+        <v>250</v>
+      </c>
+      <c r="C101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>253</v>
+      </c>
+      <c r="B103" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
